--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_86.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_86.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,688 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.39375</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['D/5', 'A', 'D'], ['A', 'D', 'A/3']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(40.82, 43.62)]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[('0:00:12.743000', '0:00:16.216000'), ('0:00:13.527000', '0:00:17.058000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:02:37.160000', '0:02:40.380000'), ('0:02:34.020000', '0:02:39.240000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1053361053361053</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'F:min', 'C:min']]</t>
-        </is>
+          <t>isophonics_81</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.625</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['B', 'E/5', 'B']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(12.394648, 21.12535)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(23.14, 32.76)]</t>
+          <t>[('0:00:58.625147', '0:01:04.604285')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(14.9, 56.28)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(14.52, 59.64)]</t>
+          <t>[('0:00:01.920000', '0:00:05.280000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:06.920000', '0:00:13.460000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>schubert-winterreise_135</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_39</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min', 'A#:maj/D', 'D#:maj', 'F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(14.52, 59.04)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(12.82, 52.64)]</t>
+          <t>[('0:00:13.600000', '0:00:44.080000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:12.440000', '0:00:38.460000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(32.32, 33.88)]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74)]</t>
+          <t>[('0:00:23.140000', '0:00:32.760000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:51.620000', '0:01:03.900000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(9.78, 14.36)]</t>
+          <t>[('0:00:07.560000', '0:00:20.920000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:01.460000', '0:00:11.260000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_1</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4512820512820513</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[['Eb', 'Ab/5', 'Eb', 'Ab/5']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(42.44, 44.36)]</t>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:17.016000', '0:00:24.727000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
+          <t>isophonics_164</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3642857142857143</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['Eb', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(93.3, 103.06)]</t>
+          <t>[['A/3', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(97.94, 108.3)]</t>
+          <t>[('0:00:48.001000', '0:00:54.307000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:58.557000', '0:01:02.834000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>1</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(7.02, 24.78)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(10.2, 29.8)]</t>
+          <t>[('0:00:01.440000', '0:02:10.840000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:01.540000', '0:02:18.860000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(16.88, 60.84)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(13.52, 51.46)]</t>
+          <t>[('0:00:00.820000', '0:02:25.840000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:01.540000', '0:02:18.860000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(79.42, 86.02), (27.36, 34.92)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(2.86, 5.3), (0.38, 3.7)]</t>
+          <t>[('0:01:16.560000', '0:01:34.120000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:21.780000', '0:00:28.040000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(31.6, 33.8)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(35.22, 40.0)]</t>
+          <t>[('0:00:15.940000', '0:00:24.900000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:08.180000', '0:00:14.180000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>isophonics_255</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.07146401985111663</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(16.24, 21.16)]</t>
+          <t>[['D:min', 'G:min/5', 'D:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(77.72, 95.68)]</t>
+          <t>[('0:01:28.480000', '0:01:40.380000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:27.789047', '0:00:31.109501')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1057579318448884</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(3.82, 6.46), (1.36, 4.74)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526), (13.648526, 21.12535)]</t>
+          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[('0:00:00.780000', '0:00:16.040000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07146401985111663</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(94.8, 106.96)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(27.789047, 31.109501)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+          <t>[('0:00:00.220000', '0:00:13.100000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
